--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ListView_D2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DD17BA-5778-4A08-B0F4-D22A1D46ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A5F30-72B4-4254-9C1C-EB001D5425E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Keyword</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>DebtInvest ListView Search Data</t>
+  </si>
+  <si>
+    <t>Contract ListView Search Data</t>
+  </si>
+  <si>
+    <t>CONTRACT PROFILE</t>
   </si>
 </sst>
 </file>
@@ -491,17 +497,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +541,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -549,7 +555,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -563,7 +569,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -577,7 +583,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -591,12 +597,12 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -609,23 +615,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A89B1C0-5388-4D0B-91A3-BC52228F6D8C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -660,6 +666,22 @@
         <v>15</v>
       </c>
       <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ListView_D2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A5F30-72B4-4254-9C1C-EB001D5425E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD561B5-314B-47E9-AFE9-E909FD84E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Keyword</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>CONTRACT PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
   </si>
 </sst>
 </file>
@@ -497,17 +500,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -541,7 +544,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,7 +558,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -569,7 +572,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -583,7 +586,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -597,12 +600,12 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -618,20 +621,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -651,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -663,11 +666,11 @@
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ListView_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD561B5-314B-47E9-AFE9-E909FD84E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D286B-85CA-46C3-9985-F46D90BB65ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Keyword</t>
   </si>
@@ -73,9 +73,6 @@
     <t>getData=AddProfileButton</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t>link_agencyProcessFinancialAgencies_wait</t>
   </si>
   <si>
@@ -112,14 +109,14 @@
     <t>CONTRACT PROFILE</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
+    <t>J02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +128,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -549,10 +552,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -563,10 +566,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -577,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -591,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -621,7 +624,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -659,14 +662,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -675,18 +678,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
